--- a/ocms/target/test-classes/TestData/FaxSendersData.xlsx
+++ b/ocms/target/test-classes/TestData/FaxSendersData.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9D318C65-AE82-4938-B442-640A31110122}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="2" r:id="rId2"/>
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
+    <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>Delete Reason</t>
   </si>
@@ -54,9 +55,6 @@
     <t>WL</t>
   </si>
   <si>
-    <t>9986820164</t>
-  </si>
-  <si>
     <t>VIPSender</t>
   </si>
   <si>
@@ -67,12 +65,45 @@
   </si>
   <si>
     <t>Edited</t>
+  </si>
+  <si>
+    <t>9917294002</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>BLSender</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>Updated Name</t>
+  </si>
+  <si>
+    <t>Updated SenderType</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>SELECT [DNIS] as'Fax Line'
+      ,[Name]
+      ,[FaxNumber] as 'Fax Number'
+      ,[Type]
+      ,LastChangedBy as 'Last Changed By', 
+  Substring(LastChangedOn,11,18) as 'Last Changed On'
+  FROM [Product_OCM].[dbo].[Fax_Senders]</t>
+  </si>
+  <si>
+    <t>Query</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,12 +140,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,27 +425,113 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -420,13 +544,22 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -434,25 +567,34 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -470,7 +612,7 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -478,52 +620,44 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/FaxSendersData.xlsx
+++ b/ocms/target/test-classes/TestData/FaxSendersData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="6795" yWindow="3315" windowWidth="13635" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N20"/>
+  <oleSize ref="A1:M20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>Delete Reason</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t>Query</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>Sender</t>
+  </si>
+  <si>
+    <t>Default</t>
   </si>
 </sst>
 </file>
@@ -433,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,6 +514,20 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -641,7 +664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/FaxSendersData.xlsx
+++ b/ocms/target/test-classes/TestData/FaxSendersData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="3315" windowWidth="13635" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M20"/>
+  <oleSize ref="A1:S20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>Delete Reason</t>
   </si>
@@ -34,9 +34,6 @@
     <t>FaxLine</t>
   </si>
   <si>
-    <t>4444</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
     <t>VIP</t>
   </si>
   <si>
-    <t>9986820163</t>
-  </si>
-  <si>
     <t>WL</t>
   </si>
   <si>
@@ -62,9 +56,6 @@
   </si>
   <si>
     <t>WLSender</t>
-  </si>
-  <si>
-    <t>Edited</t>
   </si>
   <si>
     <t>9917294002</t>
@@ -107,6 +98,18 @@
   </si>
   <si>
     <t>Default</t>
+  </si>
+  <si>
+    <t>9898</t>
+  </si>
+  <si>
+    <t>9986820189</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>1919</t>
   </si>
 </sst>
 </file>
@@ -442,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,74 +463,88 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -541,12 +558,12 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
@@ -559,45 +576,45 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -611,14 +628,15 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -626,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -640,16 +658,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1</v>
@@ -675,12 +693,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/FaxSendersData.xlsx
+++ b/ocms/target/test-classes/TestData/FaxSendersData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:S20"/>
+  <oleSize ref="A1:R24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -79,37 +79,37 @@
     <t>50000</t>
   </si>
   <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>Sender</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>9898</t>
+  </si>
+  <si>
+    <t>9986820189</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>1919</t>
+  </si>
+  <si>
     <t>SELECT [DNIS] as'Fax Line'
       ,[Name]
       ,[FaxNumber] as 'Fax Number'
       ,[Type]
       ,LastChangedBy as 'Last Changed By', 
-  Substring(LastChangedOn,11,18) as 'Last Changed On'
+  Substring(LastChangedOn,11,7) as 'Last Changed On'
   FROM [Product_OCM].[dbo].[Fax_Senders]</t>
-  </si>
-  <si>
-    <t>Query</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>Sender</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>9898</t>
-  </si>
-  <si>
-    <t>9986820189</t>
-  </si>
-  <si>
-    <t>Modified</t>
-  </si>
-  <si>
-    <t>1919</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -474,13 +474,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -508,7 +508,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -521,21 +521,21 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -596,19 +596,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -658,13 +658,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -683,7 +683,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,12 +693,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/FaxSendersData.xlsx
+++ b/ocms/target/test-classes/TestData/FaxSendersData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15600" windowHeight="6615"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:R24"/>
+  <oleSize ref="A1:O20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -437,7 +437,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -448,7 +448,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
